--- a/test/test_fmt_fmtents.xlsx
+++ b/test/test_fmt_fmtents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ualbertaca-my.sharepoint.com/personal/hqiu1_ualberta_ca/Documents/Coding/NLP Tools/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_1505D4A087D0D22E83783E11595ED87656CF3E36" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_31FD17A98720DF2E2F592A11595ED87656CF9D56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7B5B84D-0699-44E6-9C74-2EBB13FF5B76}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <t>[[" Serum thioredoxin concentrations ", " In-hospital major adverse events (IMAEs) ", " 108 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["serum", "thioredoxin concentration"], "outcome": ["imaes"]}]</t>
+    <t>[{"factor": ["thioredoxin concentration", "serum"], "outcome": ["imaes", "in-hospital major adverse event"]}]</t>
   </si>
   <si>
     <t>[{'factor': ['thioredoxin concentration', 's-'], 'outcome': ['imaes']}]</t>
@@ -145,10 +145,10 @@
     <t>[[" MIF ", " Inflammation, severity, in-hospital major adverse events, long-term clinical outcome ", " 108 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["mif"], "outcome": ["in-hospital major adverse event", "long-term", "clinical outcome", "severity", "inflammation"]}]</t>
-  </si>
-  <si>
-    <t>[{'factor': ['mif'], 'outcome': ['inflammation', 'long-term', 'severity (outcome)', 'imaes', 'outcome']}]</t>
+    <t>[{"factor": ["mif"], "outcome": ["in-hospital major adverse event", "severity", "clinical outcome", "inflammation", "long-term"]}]</t>
+  </si>
+  <si>
+    <t>[{'factor': ['mif'], 'outcome': ['inflammation', 'outcome', 'imaes', 'severity (outcome)', 'long-term']}]</t>
   </si>
   <si>
     <t>A prospective outcome study observing patients with severe traumatic brain injury over 10-15 years.</t>
@@ -176,7 +176,7 @@
     <t>[[" Glasgow coma scale score ", " Glasgow Outcome Scale (GOS) ", " 95 "], [" Standard mortality rate (SMR) ", " Mortality rate ", " 34/95 "], [" GOS at 1-year ", " GOS 10-15 years post-trauma ", " Good (GOS 4-5): 68&lt;br&gt;Poor (GOS 2-3): 27 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["glasgow coma scale score"], "outcome": ["gos"]}, {"factor": ["smr", "mortality rate", "standard"], "outcome": ["mortality rate"]}, {"factor": ["gos"], "outcome": ["years", "post-trauma", "gos"]}]</t>
+    <t>[{"factor": ["glasgow coma scale score"], "outcome": ["gos", "glasgow outcome scale"]}, {"factor": ["mortality rate", "smr", "standard"], "outcome": ["mortality rate"]}, {"factor": ["gos"], "outcome": ["years", "gos", "post-trauma"]}]</t>
   </si>
   <si>
     <t>[{'factor': ['gcs'], 'outcome': ['gos (outcome)']}, {'factor': ['standard', 'smrs'], 'outcome': ['mortality']}, {'factor': ['gos (factor)'], 'outcome': ['post-trauma', 'gos (outcome)']}]</t>
@@ -207,10 +207,10 @@
     <t>[[" The International Mission for Prognosis and Analysis of Clinical Trials in TBI (IMPACT) prognostic model ", " The prognosis for elderly patients with severe TBI ", " 137 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["analysis", "impact", "prognostic model", "prognosis", "international mission", "clinical trial", "tbi"], "outcome": ["severe", "prognosis", "patient", "tbi", "elderly"]}]</t>
-  </si>
-  <si>
-    <t>[{'factor': ['prognosis (factor)', 'prognostic model', 'impact', 'international mission'], 'outcome': ['elderly', 'prognosis (outcome)']}]</t>
+    <t>[{"factor": ["prognosis", "clinical trial", "tbi", "analysis", "impact", "international mission", "prognostic model"], "outcome": ["elderly", "severe", "prognosis", "patient", "tbi"]}]</t>
+  </si>
+  <si>
+    <t>[{'factor': ['impact', 'prognostic model', 'international mission', 'prognosis (factor)'], 'outcome': ['elderly', 'prognosis (outcome)']}]</t>
   </si>
   <si>
     <t>[Predictors of the recovery of cognitive functions in patients with traumatic brain injury].</t>
@@ -241,7 +241,7 @@
     <t>[{"factor": ["time post-tbi"], "outcome": ["percentage", "cognitive functionality gain"]}, {"factor": ["admission", "cognitive function"], "outcome": ["percentage", "cognitive functionality gain"]}]</t>
   </si>
   <si>
-    <t>[{'factor': ['time post-tbi'], 'outcome': ['percentage', 'cognitive functionality gain']}, {'factor': ['admission', 'cognitive function'], 'outcome': ['percentage', 'cognitive functionality gain']}]</t>
+    <t>[{'factor': ['time post-tbi'], 'outcome': ['percentage', 'cognitive functionality gain']}, {'factor': ['cognitive function', 'admission'], 'outcome': ['percentage', 'cognitive functionality gain']}]</t>
   </si>
   <si>
     <t>Early CT findings to predict early death in patients with traumatic brain injury: Marshall and Rotterdam CT scoring systems compared in the major academic tertiary care hospital in northeastern Japan.</t>
@@ -269,7 +269,7 @@
     <t>[[" Computed tomography (CT) ", " Death at hospital discharge ", " 245 "], [" Marshall and Rotterdam scoring systems ", " Death at hospital discharge ", " 245 "], [" Basal cistern absence ", " Death at hospital discharge ", " 245 "], [" Positive midline shift ", " Death at hospital discharge ", " 245 "], [" Hemorrhagic mass volume ", " Death at hospital discharge ", " 245 "], [" Intraventricular or subarachnoid hemorrhage ", " Death at hospital discharge ", " 245 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["ct"], "outcome": ["death"]}, {"factor": ["marshall and rotterdam scoring system"], "outcome": ["death"]}, {"factor": ["basal cistern absence"], "outcome": ["death"]}, {"factor": ["positive midline shift"], "outcome": ["death"]}, {"factor": ["hemorrhagic mass"], "outcome": ["death"]}, {"factor": ["subarachnoid hemorrhage", "intraventricular"], "outcome": ["death"]}]</t>
+    <t>[{"factor": ["compute tomography", "ct"], "outcome": ["death"]}, {"factor": ["marshall and rotterdam scoring system"], "outcome": ["death"]}, {"factor": ["basal cistern absence"], "outcome": ["death"]}, {"factor": ["positive midline shift"], "outcome": ["death"]}, {"factor": ["hemorrhagic mass"], "outcome": ["death"]}, {"factor": ["intraventricular", "subarachnoid hemorrhage"], "outcome": ["death"]}]</t>
   </si>
   <si>
     <t>[{'factor': ['ct'], 'outcome': ['mortality']}, {'factor': ['marshall and rotterdam scoring system'], 'outcome': ['mortality']}, {'factor': ['basal cistern absence'], 'outcome': ['mortality']}, {'factor': ['positive midline shift'], 'outcome': ['mortality']}, {'factor': ['hemorrhagic mass'], 'outcome': ['mortality']}, {'factor': ['intraventricular', 'sah'], 'outcome': ['mortality']}]</t>
@@ -300,10 +300,10 @@
     <t>[[" APACHE II ", " Six-month mortality of ICU-treated patients with TBI ", " 1,625 "], [" SAPS II ", " Six-month mortality of ICU-treated patients with TBI ", " 1,625 "], [" SOFA ", " Six-month mortality of ICU-treated patients with TBI ", " 1,625 "], [" Age ", " Six-month mortality of ICU-treated patients with TBI ", " 1,625 "], [" Glasgow Coma Scale ", " Six-month mortality of ICU-treated patients with TBI ", " 1,625 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["apache ii"], "outcome": ["icu-treated", "patient", "mortality", "tbi", "six-month"]}, {"factor": ["sap ii"], "outcome": ["icu-treated", "patient", "mortality", "tbi", "six-month"]}, {"factor": ["sofa"], "outcome": ["icu-treated", "patient", "mortality", "tbi", "six-month"]}, {"factor": ["age"], "outcome": ["icu-treated", "patient", "mortality", "tbi", "six-month"]}, {"factor": ["glasgow coma scale"], "outcome": ["icu-treated", "patient", "mortality", "tbi", "six-month"]}]</t>
-  </si>
-  <si>
-    <t>[{'factor': ['apache ii'], 'outcome': ['six-month', 'icu-treated', 'mortality']}, {'factor': ['sap ii'], 'outcome': ['six-month', 'icu-treated', 'mortality']}, {'factor': ['sofa'], 'outcome': ['six-month', 'icu-treated', 'mortality']}, {'factor': ['age'], 'outcome': ['six-month', 'icu-treated', 'mortality']}, {'factor': ['gcs'], 'outcome': ['six-month', 'icu-treated', 'mortality']}]</t>
+    <t>[{"factor": ["apache ii"], "outcome": ["patient", "tbi", "six-month", "mortality", "icu-treated"]}, {"factor": ["sap ii"], "outcome": ["patient", "tbi", "six-month", "mortality", "icu-treated"]}, {"factor": ["sofa"], "outcome": ["patient", "tbi", "six-month", "mortality", "icu-treated"]}, {"factor": ["age"], "outcome": ["patient", "tbi", "six-month", "mortality", "icu-treated"]}, {"factor": ["glasgow coma scale"], "outcome": ["patient", "tbi", "six-month", "mortality", "icu-treated"]}]</t>
+  </si>
+  <si>
+    <t>[{'factor': ['apache ii'], 'outcome': ['icu-treated', 'six-month', 'mortality']}, {'factor': ['sap ii'], 'outcome': ['icu-treated', 'six-month', 'mortality']}, {'factor': ['sofa'], 'outcome': ['icu-treated', 'six-month', 'mortality']}, {'factor': ['age'], 'outcome': ['icu-treated', 'six-month', 'mortality']}, {'factor': ['gcs'], 'outcome': ['icu-treated', 'six-month', 'mortality']}]</t>
   </si>
   <si>
     <t>18FDG-PET/CT in traumatic brain injury patients: the relative hypermetabolism of vermis cerebelli as a medium and long term predictor of outcome.</t>
@@ -331,10 +331,10 @@
     <t>[[" V/C ratio ", " DRS score, LCF score, GOS score ", " 105 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["v/c ratio"], "outcome": ["gos score", "drs", "lcf score"]}]</t>
-  </si>
-  <si>
-    <t>[{'factor': ['v/c ratio'], 'outcome': ['lcf score', 'drs', 'gos score']}]</t>
+    <t>[{"factor": ["v/c ratio"], "outcome": ["drs", "gos score", "lcf score"]}]</t>
+  </si>
+  <si>
+    <t>[{'factor': ['v/c ratio'], 'outcome': ['gos score', 'lcf score', 'drs']}]</t>
   </si>
   <si>
     <t>Association between serum tissue inhibitor of matrix metalloproteinase-1 levels and mortality in patients with severe brain trauma injury.</t>
@@ -362,10 +362,10 @@
     <t>[[" Serum TIMP-1 levels ", " 30-day mortality ", " 100 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["serum", "timp-1 level"], "outcome": ["mortality"]}]</t>
-  </si>
-  <si>
-    <t>[{'factor': ['s-', 'timp-1 level'], 'outcome': ['mortality']}]</t>
+    <t>[{"factor": ["timp-1 level", "serum"], "outcome": ["mortality"]}]</t>
+  </si>
+  <si>
+    <t>[{'factor': ['timp-1 level', 's-'], 'outcome': ['mortality']}]</t>
   </si>
   <si>
     <t>Diffusion tensor imaging for outcome prediction in mild traumatic brain injury: a TRACK-TBI study.</t>
@@ -393,10 +393,10 @@
     <t>[[" MRI evidence for contusion ", " 3-month Glasgow Outcome Scale-Extended (GOS-E) ", " 76 "], [" &gt;=1 ROI with severely reduced FA ", " 3-month GOS-E ", " 76 "], [" Neuropsychiatric history ", " 3-month GOS-E ", " 76 "], [" Age ", " 3-month GOS-E ", " 76 "], [" Years of education ", " 3-month GOS-E ", " 76 "], [" &gt;=1 ROI with severely reduced FA ", " 6-month GOS-E ", " 76 "], [" Neuropsychiatric history ", " 6-month GOS-E ", " 76 "], [" Years of education ", " 6-month GOS-E ", " 76 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["evidence", "mri", "contusion"], "outcome": ["gos-e"]}, {"factor": ["roi", "reduce", "fa", "severely"], "outcome": ["gos-e"]}, {"factor": ["neuropsychiatric history"], "outcome": ["gos-e"]}, {"factor": ["age"], "outcome": ["gos-e"]}, {"factor": ["year of"], "outcome": ["gos-e"]}, {"factor": ["roi", "reduce", "fa", "severely"], "outcome": ["gos-e"]}, {"factor": ["neuropsychiatric history"], "outcome": ["gos-e"]}, {"factor": ["year of"], "outcome": ["gos-e"]}]</t>
-  </si>
-  <si>
-    <t>[{'factor': ['mri', 'contusion', 'evidence'], 'outcome': ['gose']}, {'factor': ['fa', 'severely', 'reduce', 'rois'], 'outcome': ['gose']}, {'factor': ['neuropsychiatric history'], 'outcome': ['gose']}, {'factor': ['age'], 'outcome': ['gose']}, {'factor': ['year of'], 'outcome': ['gose']}, {'factor': ['fa', 'severely', 'reduce', 'rois'], 'outcome': ['gose']}, {'factor': ['neuropsychiatric history'], 'outcome': ['gose']}, {'factor': ['year of'], 'outcome': ['gose']}]</t>
+    <t>[{"factor": ["evidence", "mri", "contusion"], "outcome": ["glasgow outcome scale-extended", "gos-e"]}, {"factor": ["roi", "severely", "reduce", "fa"], "outcome": ["gos-e"]}, {"factor": ["neuropsychiatric history"], "outcome": ["gos-e"]}, {"factor": ["age"], "outcome": ["gos-e"]}, {"factor": ["year of"], "outcome": ["gos-e"]}, {"factor": ["roi", "severely", "reduce", "fa"], "outcome": ["gos-e"]}, {"factor": ["neuropsychiatric history"], "outcome": ["gos-e"]}, {"factor": ["year of"], "outcome": ["gos-e"]}]</t>
+  </si>
+  <si>
+    <t>[{'factor': ['contusion', 'mri', 'evidence'], 'outcome': ['gose', 'gos (outcome)']}, {'factor': ['severely', 'fa', 'rois', 'reduce'], 'outcome': ['gose']}, {'factor': ['neuropsychiatric history'], 'outcome': ['gose']}, {'factor': ['age'], 'outcome': ['gose']}, {'factor': ['year of'], 'outcome': ['gose']}, {'factor': ['severely', 'fa', 'rois', 'reduce'], 'outcome': ['gose']}, {'factor': ['neuropsychiatric history'], 'outcome': ['gose']}, {'factor': ['year of'], 'outcome': ['gose']}]</t>
   </si>
   <si>
     <t>Relationship of preinjury depressive symptoms to outcomes 3 mos after complicated and uncomplicated mild traumatic brain injury.</t>
@@ -455,10 +455,10 @@
     <t>[[" Age ", " Unfavorable outcome ", " 164 "], [" Admission GCS ", "  ", " 164 "], [" Mechanism of injury ", "  ", " 164 "], [" ISS ", "  ", " 164 "], [" Head AIS ", "  ", " 164 "], [" Type of operation ", "  ", " 164 "], [" Hemorrhage acuity ", "  ", " 164 "], [" Time to operation ", "  ", " 164 "], [" Pre-hospital warfarin or clopidogrel ", "  ", " 164 "], [" In-hospital death ", "  ", " 164 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["age"], "outcome": ["outcome", "unfavorable"]}, {"factor": ["admission", "gcs"], "outcome": []}, {"factor": ["injury", "mechanism"], "outcome": []}, {"factor": ["iss"], "outcome": []}, {"factor": ["ais", "head"], "outcome": []}, {"factor": ["type", "operation"], "outcome": []}, {"factor": ["hemorrhage acuity"], "outcome": []}, {"factor": ["operation", "time"], "outcome": []}, {"factor": ["warfarin", "clopidogrel", "pre-hospital"], "outcome": []}, {"factor": ["in-hospital death"], "outcome": []}]</t>
-  </si>
-  <si>
-    <t>[{'factor': ['age'], 'outcome': ['outcome']}, {'factor': ['admission', 'gcs'], 'outcome': []}, {'factor': ['mechanism'], 'outcome': []}, {'factor': ['iss'], 'outcome': []}, {'factor': ['ais', 'head'], 'outcome': []}, {'factor': ['type', 'operation'], 'outcome': []}, {'factor': ['hemorrhage acuity'], 'outcome': []}, {'factor': ['operation', 'time'], 'outcome': []}, {'factor': ['clopidogrel', 'pre-hospital', 'warfarin'], 'outcome': []}, {'factor': ['in-hospital death'], 'outcome': []}]</t>
+    <t>[{"factor": ["age"], "outcome": ["outcome", "unfavorable"]}, {"factor": ["admission", "gcs"], "outcome": []}, {"factor": ["injury", "mechanism"], "outcome": []}, {"factor": ["iss"], "outcome": []}, {"factor": ["head", "ais"], "outcome": []}, {"factor": ["type", "operation"], "outcome": []}, {"factor": ["hemorrhage acuity"], "outcome": []}, {"factor": ["time", "operation"], "outcome": []}, {"factor": ["warfarin", "clopidogrel", "pre-hospital"], "outcome": []}, {"factor": ["in-hospital death"], "outcome": []}]</t>
+  </si>
+  <si>
+    <t>[{'factor': ['age'], 'outcome': ['outcome']}, {'factor': ['admission', 'gcs'], 'outcome': []}, {'factor': ['mechanism'], 'outcome': []}, {'factor': ['iss'], 'outcome': []}, {'factor': ['ais', 'head'], 'outcome': []}, {'factor': ['operation', 'type'], 'outcome': []}, {'factor': ['hemorrhage acuity'], 'outcome': []}, {'factor': ['time', 'operation'], 'outcome': []}, {'factor': ['clopidogrel', 'pre-hospital', 'warfarin'], 'outcome': []}, {'factor': ['in-hospital death'], 'outcome': []}]</t>
   </si>
   <si>
     <t>A systematic review of age and gender factors in prolonged post-concussion symptoms after mild head injury.</t>
@@ -517,7 +517,7 @@
     <t>[[" Age ", " TBI surgery outcomes ", " 18,286 "], [" Sex ", " TBI surgery outcomes ", " 18,286 "], [" Deyo-Charlson comorbidity index score ", " TBI surgery outcomes ", " 18,286 "], [" Hospital volume ", " TBI surgery outcomes ", " 18,286 "], [" Surgeon volume ", " TBI surgery outcomes ", " 18,286 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["age"], "outcome": ["surgery", "outcome", "tbi"]}, {"factor": ["sex"], "outcome": ["surgery", "outcome", "tbi"]}, {"factor": ["score", "deyo-charlson comorbidity index"], "outcome": ["surgery", "outcome", "tbi"]}, {"factor": ["hospital volume"], "outcome": ["surgery", "outcome", "tbi"]}, {"factor": ["volume", "surgeon"], "outcome": ["surgery", "outcome", "tbi"]}]</t>
+    <t>[{"factor": ["age"], "outcome": ["outcome", "tbi", "surgery"]}, {"factor": ["sex"], "outcome": ["outcome", "tbi", "surgery"]}, {"factor": ["score", "deyo-charlson comorbidity index"], "outcome": ["outcome", "tbi", "surgery"]}, {"factor": ["hospital volume"], "outcome": ["outcome", "tbi", "surgery"]}, {"factor": ["surgeon", "volume"], "outcome": ["outcome", "tbi", "surgery"]}]</t>
   </si>
   <si>
     <t>[{'factor': ['age'], 'outcome': ['surgery', 'outcome']}, {'factor': ['sex'], 'outcome': ['surgery', 'outcome']}, {'factor': ['deyo-charlson comorbidity index'], 'outcome': ['surgery', 'outcome']}, {'factor': ['hospital volume'], 'outcome': ['surgery', 'outcome']}, {'factor': ['volume', 'surgeon'], 'outcome': ['surgery', 'outcome']}]</t>
@@ -548,7 +548,7 @@
     <t>[[" Age ", " ICU mortality ", " 231 "], [" Gender ", " ICU mortality ", " 231 "], [" Injury etiology ", " ICU mortality ", " 231 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["age"], "outcome": ["mortality", "icu"]}, {"factor": ["gender"], "outcome": ["mortality", "icu"]}, {"factor": ["etiology", "injury"], "outcome": ["mortality", "icu"]}]</t>
+    <t>[{"factor": ["age"], "outcome": ["icu", "mortality"]}, {"factor": ["gender"], "outcome": ["icu", "mortality"]}, {"factor": ["injury", "etiology"], "outcome": ["icu", "mortality"]}]</t>
   </si>
   <si>
     <t>[{'factor': ['age'], 'outcome': ['icu', 'mortality']}, {'factor': ['gender'], 'outcome': ['icu', 'mortality']}, {'factor': ['etiology'], 'outcome': ['icu', 'mortality']}]</t>
@@ -579,7 +579,7 @@
     <t>[[" Amyloid-beta1-42 (Abeta42) concentrations in cerebrospinal fluid (CSF) ", " Mortality ", " TBI patients "], [" Amyloid-beta1-42 (Abeta42) concentrations in plasma ", " Mortality ", " TBI patients "], [" Changes in CSF Abeta42 concentrations ", " Neurological status ", " TBI patients "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["csf", "concentration"], "outcome": ["mortality"]}, {"factor": ["concentration", "plasma"], "outcome": ["mortality"]}, {"factor": ["abeta42", "csf", "concentration", "change"], "outcome": ["neurological status"]}]</t>
+    <t>[{"factor": ["concentration", "csf", "cerebrospinal fluid"], "outcome": ["mortality"]}, {"factor": ["concentration", "plasma"], "outcome": ["mortality"]}, {"factor": ["concentration", "csf", "change", "abeta42"], "outcome": ["neurological status"]}]</t>
   </si>
   <si>
     <t>[{'factor': [], 'outcome': ['mortality']}, {'factor': ['pl'], 'outcome': ['mortality']}, {'factor': ['abeta42', 'change'], 'outcome': ['neurological status']}]</t>
@@ -610,10 +610,10 @@
     <t>[[" Soluble urokinase plasminogen activator receptor (suPAR) ", " Traumatic brain injury (TBI) ", " 112 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["soluble", "plasminogen activator receptor", "supar", "urokinase"], "outcome": ["tbi"]}]</t>
-  </si>
-  <si>
-    <t>[{'factor': ['soluble', 'urokinase', 'supar', 'plasminogen activator receptor'], 'outcome': []}]</t>
+    <t>[{"factor": ["supar", "urokinase", "soluble", "plasminogen activator receptor"], "outcome": ["tbi", "traumatic brain injury"]}]</t>
+  </si>
+  <si>
+    <t>[{'factor': ['urokinase', 'plasminogen activator receptor', 'soluble', 'supar'], 'outcome': []}]</t>
   </si>
   <si>
     <t>Performance of IMPACT, CRASH and Nijmegen models in predicting six month outcome of patients with severe or moderate TBI: an external validation study.</t>
@@ -641,10 +641,10 @@
     <t>[[" IMPACT core and extended models ", " six month unfavourable outcome ", " 778 "], [" CRASH basic models ", " six month unfavourable outcome ", " 778 "], [" Nijmegen models ", " six month unfavourable outcome ", " 778 "], [" IMPACT core and extended models ", " six month mortality ", " 778 "], [" CRASH basic models ", " six month mortality ", " 778 "], [" Nijmegen models ", " six month mortality ", " 778 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["extend", "model", "core", "impact"], "outcome": ["outcome", "month"]}, {"factor": ["basic model", "crash"], "outcome": ["outcome", "month"]}, {"factor": ["nijmegen model"], "outcome": ["outcome", "month"]}, {"factor": ["extend", "model", "core", "impact"], "outcome": ["mortality", "month"]}, {"factor": ["basic model", "crash"], "outcome": ["mortality", "month"]}, {"factor": ["nijmegen model"], "outcome": ["mortality", "month"]}]</t>
-  </si>
-  <si>
-    <t>[{'factor': ['core', 'model', 'impact', 'extend'], 'outcome': ['outcome']}, {'factor': ['crash', 'basic model'], 'outcome': ['outcome']}, {'factor': ['nijmegen model'], 'outcome': ['outcome']}, {'factor': ['core', 'model', 'impact', 'extend'], 'outcome': ['mortality']}, {'factor': ['crash', 'basic model'], 'outcome': ['mortality']}, {'factor': ['nijmegen model'], 'outcome': ['mortality']}]</t>
+    <t>[{"factor": ["impact", "extend", "model", "core"], "outcome": ["outcome", "month"]}, {"factor": ["basic model", "crash"], "outcome": ["outcome", "month"]}, {"factor": ["nijmegen model"], "outcome": ["outcome", "month"]}, {"factor": ["impact", "extend", "model", "core"], "outcome": ["month", "mortality"]}, {"factor": ["basic model", "crash"], "outcome": ["month", "mortality"]}, {"factor": ["nijmegen model"], "outcome": ["month", "mortality"]}]</t>
+  </si>
+  <si>
+    <t>[{'factor': ['core', 'extend', 'impact', 'model'], 'outcome': ['outcome']}, {'factor': ['crash', 'basic model'], 'outcome': ['outcome']}, {'factor': ['nijmegen model'], 'outcome': ['outcome']}, {'factor': ['core', 'extend', 'impact', 'model'], 'outcome': ['mortality']}, {'factor': ['crash', 'basic model'], 'outcome': ['mortality']}, {'factor': ['nijmegen model'], 'outcome': ['mortality']}]</t>
   </si>
   <si>
     <t>Predictors of deterioration indicating a requirement for surgery in mild to moderate traumatic brain injury.</t>
@@ -672,10 +672,10 @@
     <t>[[" Coagulopathy and abnormal fibrinolysis ", " Deterioration requiring surgery in mild to moderate traumatic brain injury ", " 54 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["coagulopathy", "abnormal", "fibrinolysis"], "outcome": ["surgery", "deterioration", "traumatic brain injury"]}]</t>
-  </si>
-  <si>
-    <t>[{'factor': ['coagulopathy', 'abnormal', 'fibrinolysis'], 'outcome': ['surgery', 'deterioration']}]</t>
+    <t>[{"factor": ["coagulopathy", "fibrinolysis", "abnormal"], "outcome": ["traumatic brain injury", "deterioration", "surgery"]}]</t>
+  </si>
+  <si>
+    <t>[{'factor': ['fibrinolysis', 'coagulopathy', 'abnormal'], 'outcome': ['deterioration', 'surgery']}]</t>
   </si>
   <si>
     <t>Long-term outcome prediction after a traumatic brain injury using early somatosensory and acoustic evoked potentials: analysis of the predictive value of the different single components of the potentials.</t>
@@ -703,10 +703,10 @@
     <t>[[" Central conduction time (CCT) ", " Long-term clinical outcome ", " 100 "], [" Latency of wave N20 ", " Long-term clinical outcome ", " 100 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["cct", "central conduction time"], "outcome": ["long-term", "clinical outcome"]}, {"factor": ["latency"], "outcome": ["long-term", "clinical outcome"]}]</t>
-  </si>
-  <si>
-    <t>[{'factor': ['central conduction time', 'cct'], 'outcome': ['long-term', 'outcome']}, {'factor': ['latency'], 'outcome': ['long-term', 'outcome']}]</t>
+    <t>[{"factor": ["central conduction time", "cct"], "outcome": ["long-term", "clinical outcome"]}, {"factor": ["latency"], "outcome": ["long-term", "clinical outcome"]}]</t>
+  </si>
+  <si>
+    <t>[{'factor': ['cct', 'central conduction time'], 'outcome': ['long-term', 'outcome']}, {'factor': ['latency'], 'outcome': ['long-term', 'outcome']}]</t>
   </si>
   <si>
     <t>The association between admission systolic blood pressure and mortality in significant traumatic brain injury: a multi-centre cohort study.</t>
@@ -734,7 +734,7 @@
     <t>[[" Systolic blood pressure (SBP) ", " Mortality ", " 5057 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["sbp"], "outcome": ["mortality"]}]</t>
+    <t>[{"factor": ["sbp", "systolic blood pressure"], "outcome": ["mortality"]}]</t>
   </si>
   <si>
     <t>[{'factor': ['sbp'], 'outcome': ['mortality']}]</t>
@@ -796,10 +796,10 @@
     <t>[[" TSP-1 levels ", " 1-week mortality ", " 134 "], [" TSP-1 levels ", " 6-month mortality ", " 134 "], [" TSP-1 levels ", " 6-month unfavorable outcome ", " 134 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["tsp-1", "level"], "outcome": ["mortality", "1-week"]}, {"factor": ["tsp-1", "level"], "outcome": ["mortality"]}, {"factor": ["tsp-1", "level"], "outcome": ["outcome", "unfavorable"]}]</t>
-  </si>
-  <si>
-    <t>[{'factor': ['tsp-1'], 'outcome': ['mortality', '1-week']}, {'factor': ['tsp-1'], 'outcome': ['mortality']}, {'factor': ['tsp-1'], 'outcome': ['outcome']}]</t>
+    <t>[{"factor": ["level", "tsp-1"], "outcome": ["1-week", "mortality"]}, {"factor": ["level", "tsp-1"], "outcome": ["mortality"]}, {"factor": ["level", "tsp-1"], "outcome": ["outcome", "unfavorable"]}]</t>
+  </si>
+  <si>
+    <t>[{'factor': ['tsp-1'], 'outcome': ['1-week', 'mortality']}, {'factor': ['tsp-1'], 'outcome': ['mortality']}, {'factor': ['tsp-1'], 'outcome': ['outcome']}]</t>
   </si>
   <si>
     <t>Plasma brain-derived neurotrophic factor levels after severe traumatic brain injury.</t>
@@ -827,10 +827,10 @@
     <t>[[" Brain-derived neurotrophic factor (BDNF) plasma levels ", " Intensive care unit (ICU) mortality in patients with severe TBI ", " 120 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["bdnf", "plasma level"], "outcome": ["severe", "patient", "mortality", "tbi", "icu"]}]</t>
-  </si>
-  <si>
-    <t>[{'factor': ['bdnf', 'plasma level'], 'outcome': ['icu', 'mortality']}]</t>
+    <t>[{"factor": ["brain-derived neurotrophic factor (bdnf)", "plasma level"], "outcome": ["intensive care unit", "severe", "patient", "icu", "tbi", "mortality"]}]</t>
+  </si>
+  <si>
+    <t>[{'factor': ['brain-derived neurotrophic factor (bdnf)', 'plasma level'], 'outcome': ['icu', 'mortality']}]</t>
   </si>
   <si>
     <t>The Application of the CRASH-CT Prognostic Model for Older Adults With Traumatic Brain Injury: A Population-Based Observational Cohort Study.</t>
@@ -858,7 +858,7 @@
     <t>[[" CRASH-CT model ", " Death within 14 days ", " 356 (older) 981 (younger) "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["crash-ct model"], "outcome": ["death", "days"]}]</t>
+    <t>[{"factor": ["crash-ct model"], "outcome": ["days", "death"]}]</t>
   </si>
   <si>
     <t>[{'factor': ['crash-ct model'], 'outcome': ['mortality']}]</t>
@@ -889,10 +889,10 @@
     <t>[[" Time to death ", " Withdrawal of life-sustaining therapies ", " 17,505 "], [" Center classification ", " Mortality ", " 108 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["time to death"], "outcome": ["life-sustaining", "withdrawal", "therapy"]}, {"factor": ["center", "classification"], "outcome": ["mortality"]}]</t>
-  </si>
-  <si>
-    <t>[{'factor': ['time to death'], 'outcome': ['life-sustaining', 'therapy', 'withdrawal']}, {'factor': ['classification', 'center'], 'outcome': ['mortality']}]</t>
+    <t>[{"factor": ["time to death"], "outcome": ["therapy", "life-sustaining", "withdrawal"]}, {"factor": ["classification", "center"], "outcome": ["mortality"]}]</t>
+  </si>
+  <si>
+    <t>[{'factor': ['time to death'], 'outcome': ['therapy', 'withdrawal', 'life-sustaining']}, {'factor': ['classification', 'center'], 'outcome': ['mortality']}]</t>
   </si>
   <si>
     <t>External Validation of the International Mission for Prognosis and Analysis of Clinical Trials in Traumatic Brain Injury: Prognostic Models for Traumatic Brain Injury on the Study of the Neuroprotective Activity of Progesterone in Severe Traumatic Brain I</t>
@@ -920,7 +920,7 @@
     <t>[[" IMPACT prognostic models ", " 6-month mortality and unfavorable outcome in patients with TBI ", " 1124 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["prognostic model", "impact"], "outcome": ["patient", "mortality", "unfavorable outcome", "tbi"]}]</t>
+    <t>[{"factor": ["impact", "prognostic model"], "outcome": ["tbi", "unfavorable outcome", "patient", "mortality"]}]</t>
   </si>
   <si>
     <t>[{'factor': ['prognostic model', 'impact'], 'outcome': ['fo', 'mortality']}]</t>
@@ -951,10 +951,10 @@
     <t>[[" Serum TRX concentration ", " 1-week mortality ", " 112 "], [" ", " 6-month mortality ", " 112 "], [" ", " 6-month unfavorable outcome ", " 112 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["serum", "concentration", "trx"], "outcome": ["mortality", "1-week"]}, {"factor": [], "outcome": ["mortality"]}, {"factor": [], "outcome": ["outcome", "unfavorable"]}]</t>
-  </si>
-  <si>
-    <t>[{'factor': ['trx', 's-'], 'outcome': ['mortality', '1-week']}, {'factor': [], 'outcome': ['mortality']}, {'factor': [], 'outcome': ['outcome']}]</t>
+    <t>[{"factor": ["trx", "concentration", "serum"], "outcome": ["1-week", "mortality"]}, {"factor": [], "outcome": ["mortality"]}, {"factor": [], "outcome": ["outcome", "unfavorable"]}]</t>
+  </si>
+  <si>
+    <t>[{'factor': ['trx', 's-'], 'outcome': ['1-week', 'mortality']}, {'factor': [], 'outcome': ['mortality']}, {'factor': [], 'outcome': ['outcome']}]</t>
   </si>
   <si>
     <t>Olfactory function in acute traumatic brain injury.</t>
@@ -982,10 +982,10 @@
     <t>[[" Glasgow Coma Scale (GCS) ", " TBI severity ", " 63 "], [" Duration of post-traumatic amnesia (PTA) ", " TBI severity ", " 63 "], [" Assault victim vs. victim of falls or motor vehicle collisions ", " Parosmia score ", " 63 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["gcs"], "outcome": ["severity", "tbi"]}, {"factor": ["duration", "pta"], "outcome": ["severity", "tbi"]}, {"factor": ["assault", "motor vehicle collision", "victim of fall", "victim"], "outcome": ["parosmia score"]}]</t>
-  </si>
-  <si>
-    <t>[{'factor': ['gcs'], 'outcome': ['severity (outcome)']}, {'factor': ['duration', 'pta'], 'outcome': ['severity (outcome)']}, {'factor': ['assault', 'motor vehicle collision', 'victim of fall', 'victim'], 'outcome': ['parosmia score']}]</t>
+    <t>[{"factor": ["glasgow coma scale", "gcs"], "outcome": ["severity", "tbi"]}, {"factor": ["duration", "pta", "post-traumatic amnesia"], "outcome": ["severity", "tbi"]}, {"factor": ["motor vehicle collision", "victim of fall", "victim", "assault"], "outcome": ["parosmia score"]}]</t>
+  </si>
+  <si>
+    <t>[{'factor': ['gcs'], 'outcome': ['severity (outcome)']}, {'factor': ['duration', 'pta'], 'outcome': ['severity (outcome)']}, {'factor': ['motor vehicle collision', 'assault', 'victim of fall', 'victim'], 'outcome': ['parosmia score']}]</t>
   </si>
   <si>
     <t>The effect of brain injury on the inflammatory response following severe trauma.</t>
@@ -1013,7 +1013,7 @@
     <t>[[" IL-6 levels ", " Development of septic complications ", " 123 "], [" IL-6 levels ", " Development of multiple organ dysfunction ", " 123 "], [" C-reactive protein levels ", " Development of septic complications ", " 123 "], [" C-reactive protein levels ", " Development of multiple organ dysfunction ", " 123 "], [" Leukocyte counts ", " Development of septic complications ", " 123 "], [" Leukocyte counts ", " Development of multiple organ dysfunction ", " 123 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["il-6", "level"], "outcome": ["septic", "development"]}, {"factor": ["il-6", "level"], "outcome": ["multiple organ dysfunction", "development"]}, {"factor": ["c-reactive protein level"], "outcome": ["septic", "development"]}, {"factor": ["c-reactive protein level"], "outcome": ["multiple organ dysfunction", "development"]}, {"factor": ["leukocyte count"], "outcome": ["septic", "development"]}, {"factor": ["leukocyte count"], "outcome": ["multiple organ dysfunction", "development"]}]</t>
+    <t>[{"factor": ["level", "il-6"], "outcome": ["septic", "development"]}, {"factor": ["level", "il-6"], "outcome": ["multiple organ dysfunction", "development"]}, {"factor": ["c-reactive protein level"], "outcome": ["septic", "development"]}, {"factor": ["c-reactive protein level"], "outcome": ["multiple organ dysfunction", "development"]}, {"factor": ["leukocyte count"], "outcome": ["septic", "development"]}, {"factor": ["leukocyte count"], "outcome": ["multiple organ dysfunction", "development"]}]</t>
   </si>
   <si>
     <t>[{'factor': ['il-6'], 'outcome': ['septic']}, {'factor': ['il-6'], 'outcome': ['multiple organ dysfunction']}, {'factor': ['c-reactive protein level'], 'outcome': ['septic']}, {'factor': ['c-reactive protein level'], 'outcome': ['multiple organ dysfunction']}, {'factor': ['leukocyte count'], 'outcome': ['septic']}, {'factor': ['leukocyte count'], 'outcome': ['multiple organ dysfunction']}]</t>
@@ -1044,7 +1044,7 @@
     <t>[[" Rotterdam score ", " Death within 2 weeks ", " 150 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["rotterdam"], "outcome": ["weeks", "death"]}]</t>
+    <t>[{"factor": ["rotterdam"], "outcome": ["death", "weeks"]}]</t>
   </si>
   <si>
     <t>[{'factor': ['rotterdam'], 'outcome': ['weeks', 'mortality']}]</t>
@@ -1106,7 +1106,7 @@
     <t>[[" PCA of inflammatory mediators after TBI ", " 6-month outcome ", " 111 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["inflammatory mediator", "pca", "tbi"], "outcome": ["outcome"]}]</t>
+    <t>[{"factor": ["pca", "tbi", "inflammatory mediator"], "outcome": ["outcome"]}]</t>
   </si>
   <si>
     <t>[{'factor': ['pca', 'inflammatory mediator'], 'outcome': ['outcome']}]</t>
@@ -1137,10 +1137,10 @@
     <t>[[" Age ", " Poor outcome ", " 409 "], [" GCS ", " Poor outcome ", " 409 "], [" ISS ", " Poor outcome ", " 409 "], [" Head AIS ", " Poor outcome ", " 409 "], [" Sex ", " Poor outcome ", " 409 "], [" MOT ", " Poor outcome ", " 409 "], [" Lung injury ", " Poor outcome ", " 409 "], [" Lung injury severity ", " Poor outcome ", " 409 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["age"], "outcome": ["poor outcome"]}, {"factor": ["gcs"], "outcome": ["poor outcome"]}, {"factor": ["iss"], "outcome": ["poor outcome"]}, {"factor": ["ais", "head"], "outcome": ["poor outcome"]}, {"factor": ["sex"], "outcome": ["poor outcome"]}, {"factor": ["mot"], "outcome": ["poor outcome"]}, {"factor": ["lung injury"], "outcome": ["poor outcome"]}, {"factor": ["severity", "lung injury"], "outcome": ["poor outcome"]}]</t>
-  </si>
-  <si>
-    <t>[{'factor': ['age'], 'outcome': ['poor outcome']}, {'factor': ['gcs'], 'outcome': ['poor outcome']}, {'factor': ['iss'], 'outcome': ['poor outcome']}, {'factor': ['ais', 'head'], 'outcome': ['poor outcome']}, {'factor': ['sex'], 'outcome': ['poor outcome']}, {'factor': ['mot'], 'outcome': ['poor outcome']}, {'factor': ['lung injury'], 'outcome': ['poor outcome']}, {'factor': ['severity (factor)', 'lung injury'], 'outcome': ['poor outcome']}]</t>
+    <t>[{"factor": ["age"], "outcome": ["poor outcome"]}, {"factor": ["gcs"], "outcome": ["poor outcome"]}, {"factor": ["iss"], "outcome": ["poor outcome"]}, {"factor": ["head", "ais"], "outcome": ["poor outcome"]}, {"factor": ["sex"], "outcome": ["poor outcome"]}, {"factor": ["mot"], "outcome": ["poor outcome"]}, {"factor": ["lung injury"], "outcome": ["poor outcome"]}, {"factor": ["severity", "lung injury"], "outcome": ["poor outcome"]}]</t>
+  </si>
+  <si>
+    <t>[{'factor': ['age'], 'outcome': ['poor outcome']}, {'factor': ['gcs'], 'outcome': ['poor outcome']}, {'factor': ['iss'], 'outcome': ['poor outcome']}, {'factor': ['ais', 'head'], 'outcome': ['poor outcome']}, {'factor': ['sex'], 'outcome': ['poor outcome']}, {'factor': ['mot'], 'outcome': ['poor outcome']}, {'factor': ['lung injury'], 'outcome': ['poor outcome']}, {'factor': ['lung injury', 'severity (factor)'], 'outcome': ['poor outcome']}]</t>
   </si>
   <si>
     <t>Serum biomarkers as predictors of long-term outcome in severe traumatic brain injury: analysis from a randomized placebo-controlled Phase II clinical trial.</t>
@@ -1168,7 +1168,7 @@
     <t>[[" IL-6 ", " Favorable GOS score at 1 year ", " 86 "], [" Pg ", " Favorable GOS score at 1 year ", " 86 "], [" GFAP ", " Unfavorable GOS score at 1 year ", " 86 "], [" IL-6 ", " Survival status at 1 year ", " 86 "], [" Pg ", " Survival status at 1 year ", " 86 "], [" GFAP ", " Survival status at 1 year ", " 86 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["il-6"], "outcome": ["year", "favorable", "gos"]}, {"factor": ["pg"], "outcome": ["year", "favorable", "gos"]}, {"factor": ["gfap"], "outcome": ["unfavorable", "year", "score", "gos"]}, {"factor": ["il-6"], "outcome": ["year", "survival status"]}, {"factor": ["pg"], "outcome": ["year", "survival status"]}, {"factor": ["gfap"], "outcome": ["year", "survival status"]}]</t>
+    <t>[{"factor": ["il-6"], "outcome": ["gos", "favorable", "year"]}, {"factor": ["pg"], "outcome": ["gos", "favorable", "year"]}, {"factor": ["gfap"], "outcome": ["score", "gos", "unfavorable", "year"]}, {"factor": ["il-6"], "outcome": ["survival status", "year"]}, {"factor": ["pg"], "outcome": ["survival status", "year"]}, {"factor": ["gfap"], "outcome": ["survival status", "year"]}]</t>
   </si>
   <si>
     <t>[{'factor': ['il-6'], 'outcome': ['gos (outcome)']}, {'factor': ['pg'], 'outcome': ['gos (outcome)']}, {'factor': ['gfap'], 'outcome': ['gos (outcome)']}, {'factor': ['il-6'], 'outcome': ['survival status']}, {'factor': ['pg'], 'outcome': ['survival status']}, {'factor': ['gfap'], 'outcome': ['survival status']}]</t>
@@ -1199,7 +1199,7 @@
     <t>[[" Acute FA ", " DRS score ", " 11 "], [" Subacute FA ", " DRS score ", " 11 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["acute"], "outcome": ["score", "drs"]}, {"factor": ["fa", "subacute"], "outcome": ["score", "drs"]}]</t>
+    <t>[{"factor": ["acute"], "outcome": ["drs", "score"]}, {"factor": ["subacute", "fa"], "outcome": ["drs", "score"]}]</t>
   </si>
   <si>
     <t>[{'factor': ['acute'], 'outcome': ['drs']}, {'factor': ['fa', 'subacute'], 'outcome': ['drs']}]</t>
@@ -1230,10 +1230,10 @@
     <t>[[" Mechanical ventilation ", " Neurological complications ", " 12,887 "], [" Head injury severity ", " Neurological complications ", " 12,887 "], [" Blood transfusion ", " Neurological complications ", " 12,887 "], [" Neurosurgical intervention ", " Neurological complications ", " 12,887 "], [" Mechanical ventilation ", " Non-neurological complications ", " 12,887 "], [" Glasgow Coma Scale ", " Non-neurological complications ", " 12,887 "], [" Blood transfusion ", " Non-neurological complications ", " 12,887 "], [" Concomitant injuries ", " Non-neurological complications ", " 12,887 "]]</t>
   </si>
   <si>
-    <t>[{"factor": ["mechanical ventilation"], "outcome": ["neurological"]}, {"factor": ["severity", "head injury"], "outcome": ["neurological"]}, {"factor": ["blood transfusion"], "outcome": ["neurological"]}, {"factor": ["neurosurgical intervention"], "outcome": ["neurological"]}, {"factor": ["mechanical ventilation"], "outcome": ["non-neurological", "complication"]}, {"factor": ["glasgow coma scale"], "outcome": ["non-neurological", "complication"]}, {"factor": ["blood transfusion"], "outcome": ["non-neurological", "complication"]}, {"factor": ["injury", "concomitant"], "outcome": ["non-neurological", "complication"]}]</t>
-  </si>
-  <si>
-    <t>[{'factor': ['mv'], 'outcome': ['neurological']}, {'factor': ['severity (factor)', 'hi'], 'outcome': ['neurological']}, {'factor': ['blood transfusion'], 'outcome': ['neurological']}, {'factor': ['nsi'], 'outcome': ['neurological']}, {'factor': ['mv'], 'outcome': ['non-neurological', 'complication']}, {'factor': ['gcs'], 'outcome': ['non-neurological', 'complication']}, {'factor': ['blood transfusion'], 'outcome': ['non-neurological', 'complication']}, {'factor': ['concomitant'], 'outcome': ['non-neurological', 'complication']}]</t>
+    <t>[{"factor": ["mechanical ventilation"], "outcome": ["neurological"]}, {"factor": ["severity", "head injury"], "outcome": ["neurological"]}, {"factor": ["blood transfusion"], "outcome": ["neurological"]}, {"factor": ["neurosurgical intervention"], "outcome": ["neurological"]}, {"factor": ["mechanical ventilation"], "outcome": ["complication", "non-neurological"]}, {"factor": ["glasgow coma scale"], "outcome": ["complication", "non-neurological"]}, {"factor": ["blood transfusion"], "outcome": ["complication", "non-neurological"]}, {"factor": ["injury", "concomitant"], "outcome": ["complication", "non-neurological"]}]</t>
+  </si>
+  <si>
+    <t>[{'factor': ['mv'], 'outcome': ['neurological']}, {'factor': ['hi', 'severity (factor)'], 'outcome': ['neurological']}, {'factor': ['blood transfusion'], 'outcome': ['neurological']}, {'factor': ['nsi'], 'outcome': ['neurological']}, {'factor': ['mv'], 'outcome': ['complication', 'non-neurological']}, {'factor': ['gcs'], 'outcome': ['complication', 'non-neurological']}, {'factor': ['blood transfusion'], 'outcome': ['complication', 'non-neurological']}, {'factor': ['concomitant'], 'outcome': ['complication', 'non-neurological']}]</t>
   </si>
   <si>
     <t>Management and outcome of traumatic brain injury patients at Muhimbili Orthopaedic Institute Dar es Salaam, Tanzania.</t>
@@ -1629,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
